--- a/pred_ohlcv/54_21/2020-01-23 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XLM ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-876589.5310199099</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-915053.8479199099</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-915232.7589199098</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-885324.8434199098</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-887431.7434199098</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-887431.7434199098</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-968856.9514199098</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-972110.5046199099</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-950562.00301991</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-953424.0893199099</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-971566.2485199099</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-946439.2217390399</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-962699.4247390399</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-964171.3256390399</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-964171.3256390399</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-989637.8221390399</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-988483.8204658699</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-990287.3136658699</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1247706.342520959</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1489353.973720959</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1521379.530720959</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1528864.862820959</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1528864.862820959</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1563227.391020959</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1563227.391020959</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1563227.391020959</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1585005.191020959</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1585005.191020959</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1584966.354620959</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1460959.692310699</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1449910.844820959</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1449910.844820959</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1449910.844820959</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1449910.844820959</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1433704.382531219</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1446602.048457189</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1446602.048457189</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1443918.244520859</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1443894.860820859</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1478425.079820859</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1489801.746820859</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1457121.561420859</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1442748.091120859</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1449173.080620859</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1452837.832420859</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1436754.439020859</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1396475.130620859</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1386352.464920859</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1385287.464920859</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1385287.464920859</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1512594.676720859</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1488052.584120859</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1474371.606720859</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1474897.606720859</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1478875.806720859</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1479381.062620859</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1459242.774820859</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1389352.719820859</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1389352.719820859</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1415218.677620859</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1415218.677620859</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1312603.388120859</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1312603.388120859</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1317603.388120859</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1317603.388120859</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1317082.388120859</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1317082.388120859</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1330273.446396529</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1330148.289950979</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1282112.984350979</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1286277.326950979</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1286317.326950979</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1255906.544850979</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1237537.828150979</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1086864.083150979</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1086864.083150979</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1086017.881321209</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1086017.881321209</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1086017.881321209</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1059516.358421209</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1055517.061921209</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-779487.2309212091</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-788090.4447212091</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-814298.8262212091</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-854256.9210212091</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-896005.4941212091</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-936788.7427212091</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-936788.7427212091</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1209342.575167229</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1210478.575167229</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1209644.082767229</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1210058.082767229</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1213058.082767229</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-1286742.722667229</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-1286742.722667229</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-1622473.52076723</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-1622465.52076723</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1623169.29066723</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1630578.71376723</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-1454983.36683575</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-1460689.36593575</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-1480256.90103575</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-1488916.36783575</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 XLM ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-876589.5310199099</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-915053.8479199099</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-915232.7589199098</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-884634.7326199098</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-885324.8434199098</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-887431.7434199098</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-887431.7434199098</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-968856.9514199098</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-970841.6216199099</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-972110.5046199099</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-950562.00301991</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-953424.0893199099</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-956910.3485199099</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-971574.2485199099</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-971566.2485199099</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-980124.8767390399</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-946439.2217390399</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-962699.4247390399</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-964171.3256390399</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-964171.3256390399</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-989637.8221390399</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-988483.8204658699</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-990287.3136658699</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1247706.342520959</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1585005.191020959</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1585005.191020959</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1584966.354620959</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1460959.692310699</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1450954.844820959</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1450954.844820959</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1423746.261631219</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1433072.199631219</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1433491.199631219</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1433158.261731219</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1433199.697657189</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1447199.697657189</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1446602.048457189</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1446602.048457189</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1443819.633320859</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1443819.633320859</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1452888.283120859</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1449769.615420859</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1448798.455120859</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1448798.455120859</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1449059.130220859</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1443918.244520859</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1443894.860820859</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1478425.079820859</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1489801.746820859</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1457121.561420859</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1442748.091120859</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1449173.080620859</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1452837.832420859</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1436754.439020859</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1396475.130620859</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1386352.464920859</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1385287.464920859</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1385287.464920859</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1512594.676720859</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1488052.584120859</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1474371.606720859</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1474897.606720859</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1478875.806720859</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1479381.062620859</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1459242.774820859</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1451627.251320859</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1449191.820920859</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1411965.334320859</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1431342.078520859</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1389352.719820859</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1389352.719820859</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1415218.677620859</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1415218.677620859</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1296407.866820859</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1312603.388120859</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1312603.388120859</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1317603.388120859</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1317603.388120859</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1317082.388120859</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1317082.388120859</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1315685.157196529</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1330273.446396529</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1330148.289950979</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1333156.471550979</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1282112.984350979</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1286277.326950979</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1286317.326950979</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1255906.544850979</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1237007.966350979</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1237537.828150979</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1086864.083150979</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1086864.083150979</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1086017.881321209</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1086017.881321209</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1086017.881321209</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1059516.358421209</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1055517.061921209</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-834554.8263212091</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-788090.4447212091</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-814298.8262212091</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-854256.9210212091</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-896005.4941212091</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-936788.7427212091</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-936788.7427212091</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1209342.575167229</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1210478.575167229</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1209644.082767229</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1210058.082767229</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1213058.082767229</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-1286742.722667229</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-1622473.52076723</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-1622465.52076723</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1623169.29066723</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1594513.79436723</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1598060.83226723</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1458547.78008739</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-1460689.36593575</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-1480256.90103575</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-1488916.36783575</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
